--- a/tekgrads/contacts.xlsx
+++ b/tekgrads/contacts.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uma\Downloads\RKIT Labs -Prathibha\Job Posting 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajes\OneDrive\Documents\GitHub\images\tekgrads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344BC747-933A-4BAF-B2C5-F78837E368A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A83963-9E32-4BF4-8C07-2F0431C6E90B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BU$214</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15549" uniqueCount="2312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15622" uniqueCount="2313">
   <si>
     <t>Freelance IT Consultants (Part-Time) | Work from Home</t>
   </si>
@@ -7094,12 +7097,15 @@
   <si>
     <t>09-Jul-2003</t>
   </si>
+  <si>
+    <t>rajesh.cn642@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7131,6 +7137,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7149,11 +7163,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7170,8 +7185,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B6465967-DE2D-40C6-9102-3E5A4756D89B}"/>
   </cellStyles>
@@ -7451,15 +7470,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU213"/>
+  <dimension ref="A1:BU214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="F216" sqref="F216"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E214"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1145</v>
       </c>
@@ -7680,7 +7703,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7901,7 +7924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -8122,7 +8145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -8343,7 +8366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -8564,7 +8587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -8785,7 +8808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -9006,7 +9029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -9227,7 +9250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -9448,7 +9471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -9669,7 +9692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -9890,7 +9913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -10111,7 +10134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -10332,7 +10355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -10553,7 +10576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -10774,7 +10797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -10995,7 +11018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -11216,7 +11239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -11437,7 +11460,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -11658,7 +11681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -11879,7 +11902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -12100,7 +12123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -12321,7 +12344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -12542,7 +12565,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -12763,7 +12786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -12984,7 +13007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -13205,7 +13228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -13426,7 +13449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -13647,7 +13670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -13868,7 +13891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -14089,7 +14112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -14310,7 +14333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -14531,7 +14554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -14752,7 +14775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -14973,7 +14996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -15194,7 +15217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -15415,7 +15438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -15636,7 +15659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -15857,7 +15880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -16078,7 +16101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -16299,7 +16322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -16520,7 +16543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -16741,7 +16764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -16962,7 +16985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -17183,7 +17206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -17404,7 +17427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -17625,7 +17648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -17846,7 +17869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -18067,7 +18090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -18288,7 +18311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -18509,7 +18532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -18730,7 +18753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -18951,7 +18974,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -19172,7 +19195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -19393,7 +19416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -19614,7 +19637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -19835,7 +19858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -20056,7 +20079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -20277,7 +20300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -20498,7 +20521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -20719,7 +20742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -20940,7 +20963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -21161,7 +21184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -21382,7 +21405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -21603,7 +21626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -21824,7 +21847,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -22045,7 +22068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -22266,7 +22289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -22487,7 +22510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -22708,7 +22731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -22929,7 +22952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -23150,7 +23173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -23371,7 +23394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -23592,7 +23615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -23813,7 +23836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -24034,7 +24057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -24255,7 +24278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -24476,7 +24499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
@@ -24697,7 +24720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -24918,7 +24941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>0</v>
       </c>
@@ -25139,7 +25162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -25360,7 +25383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -25581,7 +25604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>0</v>
       </c>
@@ -25802,7 +25825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>0</v>
       </c>
@@ -26023,7 +26046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>0</v>
       </c>
@@ -26244,7 +26267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
@@ -26465,7 +26488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -26686,7 +26709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
@@ -26907,7 +26930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -27128,7 +27151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -27349,7 +27372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -27570,7 +27593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>0</v>
       </c>
@@ -27791,7 +27814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -28012,7 +28035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>0</v>
       </c>
@@ -28233,7 +28256,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -28454,7 +28477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>0</v>
       </c>
@@ -28675,7 +28698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -28896,7 +28919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>0</v>
       </c>
@@ -29117,7 +29140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -29338,7 +29361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
@@ -29559,7 +29582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -29780,7 +29803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>0</v>
       </c>
@@ -30001,7 +30024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -30222,7 +30245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>0</v>
       </c>
@@ -30443,7 +30466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>0</v>
       </c>
@@ -30664,7 +30687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>0</v>
       </c>
@@ -30885,7 +30908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>0</v>
       </c>
@@ -31106,7 +31129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>0</v>
       </c>
@@ -31327,7 +31350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>0</v>
       </c>
@@ -31548,7 +31571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>0</v>
       </c>
@@ -31769,7 +31792,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>0</v>
       </c>
@@ -31990,7 +32013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>0</v>
       </c>
@@ -32211,7 +32234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>0</v>
       </c>
@@ -32432,7 +32455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>0</v>
       </c>
@@ -32653,7 +32676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>0</v>
       </c>
@@ -32874,7 +32897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>0</v>
       </c>
@@ -33095,7 +33118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>0</v>
       </c>
@@ -33316,7 +33339,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>0</v>
       </c>
@@ -33537,7 +33560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>0</v>
       </c>
@@ -33758,7 +33781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>0</v>
       </c>
@@ -33979,7 +34002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>0</v>
       </c>
@@ -34200,7 +34223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>0</v>
       </c>
@@ -34421,7 +34444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>0</v>
       </c>
@@ -34642,7 +34665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>0</v>
       </c>
@@ -34863,7 +34886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>0</v>
       </c>
@@ -35084,7 +35107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>0</v>
       </c>
@@ -35305,7 +35328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>0</v>
       </c>
@@ -35526,7 +35549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>0</v>
       </c>
@@ -35747,7 +35770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>0</v>
       </c>
@@ -35968,7 +35991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>0</v>
       </c>
@@ -36189,7 +36212,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>0</v>
       </c>
@@ -36410,7 +36433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>0</v>
       </c>
@@ -36631,7 +36654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>0</v>
       </c>
@@ -36852,7 +36875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>0</v>
       </c>
@@ -37073,7 +37096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>0</v>
       </c>
@@ -37294,7 +37317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>0</v>
       </c>
@@ -37515,7 +37538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>0</v>
       </c>
@@ -37736,7 +37759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>0</v>
       </c>
@@ -37957,7 +37980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>0</v>
       </c>
@@ -38178,7 +38201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>0</v>
       </c>
@@ -38399,7 +38422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>0</v>
       </c>
@@ -38620,7 +38643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>0</v>
       </c>
@@ -38841,7 +38864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>0</v>
       </c>
@@ -39062,7 +39085,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>0</v>
       </c>
@@ -39283,7 +39306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>0</v>
       </c>
@@ -39504,7 +39527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>0</v>
       </c>
@@ -39725,7 +39748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
         <v>0</v>
       </c>
@@ -39946,7 +39969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>0</v>
       </c>
@@ -40167,7 +40190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
         <v>0</v>
       </c>
@@ -40388,7 +40411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>0</v>
       </c>
@@ -40609,7 +40632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>0</v>
       </c>
@@ -40830,7 +40853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>0</v>
       </c>
@@ -41051,7 +41074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
         <v>0</v>
       </c>
@@ -41272,7 +41295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>0</v>
       </c>
@@ -41493,7 +41516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>0</v>
       </c>
@@ -41714,7 +41737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>0</v>
       </c>
@@ -41935,7 +41958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>0</v>
       </c>
@@ -42156,7 +42179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>0</v>
       </c>
@@ -42377,7 +42400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>0</v>
       </c>
@@ -42598,7 +42621,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>0</v>
       </c>
@@ -42819,7 +42842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>0</v>
       </c>
@@ -43040,7 +43063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>0</v>
       </c>
@@ -43261,7 +43284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
@@ -43482,7 +43505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>0</v>
       </c>
@@ -43703,7 +43726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>0</v>
       </c>
@@ -43924,7 +43947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
@@ -44145,7 +44168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>0</v>
       </c>
@@ -44366,7 +44389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>0</v>
       </c>
@@ -44587,7 +44610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>0</v>
       </c>
@@ -44808,7 +44831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>0</v>
       </c>
@@ -45029,7 +45052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>0</v>
       </c>
@@ -45250,7 +45273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>0</v>
       </c>
@@ -45471,7 +45494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>0</v>
       </c>
@@ -45692,7 +45715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>0</v>
       </c>
@@ -45913,7 +45936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>0</v>
       </c>
@@ -46134,7 +46157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
@@ -46355,7 +46378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>0</v>
       </c>
@@ -46576,7 +46599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>0</v>
       </c>
@@ -46797,7 +46820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>0</v>
       </c>
@@ -47018,7 +47041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>0</v>
       </c>
@@ -47239,7 +47262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>0</v>
       </c>
@@ -47460,7 +47483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>0</v>
       </c>
@@ -47681,7 +47704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>0</v>
       </c>
@@ -47902,7 +47925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>0</v>
       </c>
@@ -48123,7 +48146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>0</v>
       </c>
@@ -48344,7 +48367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>0</v>
       </c>
@@ -48565,7 +48588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>0</v>
       </c>
@@ -48786,7 +48809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>0</v>
       </c>
@@ -49007,7 +49030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>0</v>
       </c>
@@ -49228,7 +49251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>0</v>
       </c>
@@ -49449,7 +49472,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>0</v>
       </c>
@@ -49670,7 +49693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>0</v>
       </c>
@@ -49891,7 +49914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>0</v>
       </c>
@@ -50112,7 +50135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>0</v>
       </c>
@@ -50333,7 +50356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>0</v>
       </c>
@@ -50554,7 +50577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>0</v>
       </c>
@@ -50775,7 +50798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>0</v>
       </c>
@@ -50996,7 +51019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>0</v>
       </c>
@@ -51217,7 +51240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>0</v>
       </c>
@@ -51438,7 +51461,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>0</v>
       </c>
@@ -51659,7 +51682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>0</v>
       </c>
@@ -51880,7 +51903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>0</v>
       </c>
@@ -52101,7 +52124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>0</v>
       </c>
@@ -52322,7 +52345,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>0</v>
       </c>
@@ -52543,7 +52566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>0</v>
       </c>
@@ -52764,7 +52787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>0</v>
       </c>
@@ -52985,7 +53008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>0</v>
       </c>
@@ -53206,7 +53229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>0</v>
       </c>
@@ -53427,7 +53450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>0</v>
       </c>
@@ -53648,7 +53671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>0</v>
       </c>
@@ -53869,7 +53892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>0</v>
       </c>
@@ -54090,7 +54113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>0</v>
       </c>
@@ -54311,7 +54334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:73" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>0</v>
       </c>
@@ -54532,7 +54555,229 @@
         <v>26</v>
       </c>
     </row>
+    <row r="214" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>2305</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G214" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K214" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L214" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="M214" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N214" s="4" t="s">
+        <v>2306</v>
+      </c>
+      <c r="O214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P214" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q214" s="4" t="s">
+        <v>2307</v>
+      </c>
+      <c r="R214" s="4" t="s">
+        <v>2308</v>
+      </c>
+      <c r="S214" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="T214" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U214" s="4" t="s">
+        <v>2309</v>
+      </c>
+      <c r="V214" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W214" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="X214" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y214" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Z214" s="4" t="s">
+        <v>1609</v>
+      </c>
+      <c r="AA214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE214" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF214" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG214" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH214" s="4" t="s">
+        <v>2310</v>
+      </c>
+      <c r="AI214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ214" s="4" t="s">
+        <v>2311</v>
+      </c>
+      <c r="AK214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AW214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AY214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BC214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BE214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BH214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BI214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BJ214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BL214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BM214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BN214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BP214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BR214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BS214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BT214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU214" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:BU214" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="BU2" r:id="rId1" xr:uid="{E6BBA743-50DB-4A42-B731-E63A8599E24F}"/>
     <hyperlink ref="BU3" r:id="rId2" xr:uid="{0C9797C7-2F90-46FD-9707-2A60BE79DD93}"/>
@@ -54746,6 +54991,8 @@
     <hyperlink ref="BU211" r:id="rId210" xr:uid="{AC45CCF4-E2BE-45E0-9A50-A305C9A353E0}"/>
     <hyperlink ref="BU212" r:id="rId211" xr:uid="{76F84DFD-03DC-407A-B272-7560493ECF0A}"/>
     <hyperlink ref="BU213" r:id="rId212" xr:uid="{DE9B2ED9-092E-4FCD-AB7F-C0F2B73071C9}"/>
+    <hyperlink ref="BU214" r:id="rId213" xr:uid="{B191A378-3CD2-452E-BF05-6D6E03EB1CA7}"/>
+    <hyperlink ref="D214" r:id="rId214" xr:uid="{4946BF37-FF52-452B-B4FD-E7CAF0870C78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
